--- a/users_2026.xlsx
+++ b/users_2026.xlsx
@@ -1,34 +1,163 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/35cb429d18e4db0f/Desktop/바탕화면/coding/pdf_printer/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="12" documentId="11_2B59D2BFD320DC8176EC7B53541510344D078DDF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{57C9CADA-D93D-40DC-B99E-3039FAF6B85C}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="480" yWindow="6315" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+  <si>
+    <t>userid</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>pdf</t>
+  </si>
+  <si>
+    <t>이상수</t>
+  </si>
+  <si>
+    <t>14816</t>
+  </si>
+  <si>
+    <t>김민수</t>
+  </si>
+  <si>
+    <t>56296</t>
+  </si>
+  <si>
+    <t>박종은</t>
+  </si>
+  <si>
+    <t>40798</t>
+  </si>
+  <si>
+    <t>김은주</t>
+  </si>
+  <si>
+    <t>35168</t>
+  </si>
+  <si>
+    <t>이복미</t>
+  </si>
+  <si>
+    <t>23631</t>
+  </si>
+  <si>
+    <t>정희수</t>
+  </si>
+  <si>
+    <t>81271</t>
+  </si>
+  <si>
+    <t>김성관</t>
+  </si>
+  <si>
+    <t>69287</t>
+  </si>
+  <si>
+    <t>황경애</t>
+  </si>
+  <si>
+    <t>49126</t>
+  </si>
+  <si>
+    <t>최지혜</t>
+  </si>
+  <si>
+    <t>50835</t>
+  </si>
+  <si>
+    <t>양유정</t>
+  </si>
+  <si>
+    <t>52172</t>
+  </si>
+  <si>
+    <t>안가을</t>
+  </si>
+  <si>
+    <t>75095</t>
+  </si>
+  <si>
+    <t>설정열</t>
+  </si>
+  <si>
+    <t>44893</t>
+  </si>
+  <si>
+    <t>홍기성</t>
+  </si>
+  <si>
+    <t>43388</t>
+  </si>
+  <si>
+    <t>노승봉</t>
+  </si>
+  <si>
+    <t>14495</t>
+  </si>
+  <si>
+    <t>권혁진</t>
+  </si>
+  <si>
+    <t>69012</t>
+  </si>
+  <si>
+    <t>이재웅</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,81 +175,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -408,54 +481,1081 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C160"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A153" sqref="A153"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="12.375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>userid</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>password</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>윤상문</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>scrypt:32768:8:1$AHwxnfrHoEYY9kiB$36866838a99ec388811ce4b61f3ed278f69fafc05604735180bb1bb4edc001d7ca3482dbafb8600a5a66d1f602ab194beffd52095e04b7690e04b83c11854f8f</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>윤상문.pdf</t>
-        </is>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="str">
+        <f>A2&amp;".pdf"</f>
+        <v>이상수.pdf</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" ref="C3:C68" si="0">A3&amp;".pdf"</f>
+        <v>김민수.pdf</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>박종은.pdf</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>김은주.pdf</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>이복미.pdf</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>정희수.pdf</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v>김성관.pdf</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v>황경애.pdf</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="0"/>
+        <v>최지혜.pdf</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="0"/>
+        <v>양유정.pdf</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="0"/>
+        <v>안가을.pdf</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="0"/>
+        <v>설정열.pdf</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="0"/>
+        <v>홍기성.pdf</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="0"/>
+        <v>노승봉.pdf</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" si="0"/>
+        <v>권혁진.pdf</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="1">
+        <v>79544</v>
+      </c>
+      <c r="C17" t="str">
+        <f t="shared" si="0"/>
+        <v>이재웅.pdf</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C18" t="str">
+        <f t="shared" si="0"/>
+        <v>.pdf</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C19" t="str">
+        <f t="shared" si="0"/>
+        <v>.pdf</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C20" t="str">
+        <f t="shared" si="0"/>
+        <v>.pdf</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C21" t="str">
+        <f t="shared" si="0"/>
+        <v>.pdf</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C22" t="str">
+        <f t="shared" si="0"/>
+        <v>.pdf</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C23" t="str">
+        <f t="shared" si="0"/>
+        <v>.pdf</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C24" t="str">
+        <f t="shared" si="0"/>
+        <v>.pdf</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C25" t="str">
+        <f t="shared" si="0"/>
+        <v>.pdf</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C26" t="str">
+        <f t="shared" si="0"/>
+        <v>.pdf</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C27" t="str">
+        <f t="shared" si="0"/>
+        <v>.pdf</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C28" t="str">
+        <f t="shared" si="0"/>
+        <v>.pdf</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C29" t="str">
+        <f t="shared" si="0"/>
+        <v>.pdf</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C30" t="str">
+        <f t="shared" si="0"/>
+        <v>.pdf</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C31" t="str">
+        <f t="shared" si="0"/>
+        <v>.pdf</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C32" t="str">
+        <f t="shared" si="0"/>
+        <v>.pdf</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C33" t="str">
+        <f t="shared" si="0"/>
+        <v>.pdf</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C34" t="str">
+        <f t="shared" si="0"/>
+        <v>.pdf</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C35" t="str">
+        <f t="shared" si="0"/>
+        <v>.pdf</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C36" t="str">
+        <f t="shared" si="0"/>
+        <v>.pdf</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C37" t="str">
+        <f t="shared" si="0"/>
+        <v>.pdf</v>
+      </c>
+    </row>
+    <row r="38" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C38" t="str">
+        <f t="shared" si="0"/>
+        <v>.pdf</v>
+      </c>
+    </row>
+    <row r="39" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C39" t="str">
+        <f t="shared" si="0"/>
+        <v>.pdf</v>
+      </c>
+    </row>
+    <row r="40" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C40" t="str">
+        <f t="shared" si="0"/>
+        <v>.pdf</v>
+      </c>
+    </row>
+    <row r="41" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C41" t="str">
+        <f t="shared" si="0"/>
+        <v>.pdf</v>
+      </c>
+    </row>
+    <row r="42" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C42" t="str">
+        <f t="shared" si="0"/>
+        <v>.pdf</v>
+      </c>
+    </row>
+    <row r="43" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C43" t="str">
+        <f t="shared" si="0"/>
+        <v>.pdf</v>
+      </c>
+    </row>
+    <row r="44" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C44" t="str">
+        <f t="shared" si="0"/>
+        <v>.pdf</v>
+      </c>
+    </row>
+    <row r="45" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C45" t="str">
+        <f t="shared" si="0"/>
+        <v>.pdf</v>
+      </c>
+    </row>
+    <row r="46" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C46" t="str">
+        <f t="shared" si="0"/>
+        <v>.pdf</v>
+      </c>
+    </row>
+    <row r="47" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C47" t="str">
+        <f t="shared" si="0"/>
+        <v>.pdf</v>
+      </c>
+    </row>
+    <row r="48" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C48" t="str">
+        <f t="shared" si="0"/>
+        <v>.pdf</v>
+      </c>
+    </row>
+    <row r="49" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C49" t="str">
+        <f t="shared" si="0"/>
+        <v>.pdf</v>
+      </c>
+    </row>
+    <row r="50" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C50" t="str">
+        <f t="shared" si="0"/>
+        <v>.pdf</v>
+      </c>
+    </row>
+    <row r="51" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C51" t="str">
+        <f t="shared" si="0"/>
+        <v>.pdf</v>
+      </c>
+    </row>
+    <row r="52" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C52" t="str">
+        <f t="shared" si="0"/>
+        <v>.pdf</v>
+      </c>
+    </row>
+    <row r="53" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C53" t="str">
+        <f t="shared" si="0"/>
+        <v>.pdf</v>
+      </c>
+    </row>
+    <row r="54" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C54" t="str">
+        <f t="shared" si="0"/>
+        <v>.pdf</v>
+      </c>
+    </row>
+    <row r="55" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C55" t="str">
+        <f t="shared" si="0"/>
+        <v>.pdf</v>
+      </c>
+    </row>
+    <row r="56" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C56" t="str">
+        <f t="shared" si="0"/>
+        <v>.pdf</v>
+      </c>
+    </row>
+    <row r="57" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C57" t="str">
+        <f t="shared" si="0"/>
+        <v>.pdf</v>
+      </c>
+    </row>
+    <row r="58" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C58" t="str">
+        <f t="shared" si="0"/>
+        <v>.pdf</v>
+      </c>
+    </row>
+    <row r="59" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C59" t="str">
+        <f t="shared" si="0"/>
+        <v>.pdf</v>
+      </c>
+    </row>
+    <row r="60" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C60" t="str">
+        <f t="shared" si="0"/>
+        <v>.pdf</v>
+      </c>
+    </row>
+    <row r="61" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C61" t="str">
+        <f t="shared" si="0"/>
+        <v>.pdf</v>
+      </c>
+    </row>
+    <row r="62" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C62" t="str">
+        <f t="shared" si="0"/>
+        <v>.pdf</v>
+      </c>
+    </row>
+    <row r="63" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C63" t="str">
+        <f t="shared" si="0"/>
+        <v>.pdf</v>
+      </c>
+    </row>
+    <row r="64" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C64" t="str">
+        <f t="shared" si="0"/>
+        <v>.pdf</v>
+      </c>
+    </row>
+    <row r="65" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C65" t="str">
+        <f t="shared" si="0"/>
+        <v>.pdf</v>
+      </c>
+    </row>
+    <row r="66" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C66" t="str">
+        <f t="shared" si="0"/>
+        <v>.pdf</v>
+      </c>
+    </row>
+    <row r="67" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C67" t="str">
+        <f>A67&amp;".pdf"</f>
+        <v>.pdf</v>
+      </c>
+    </row>
+    <row r="68" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C68" t="str">
+        <f t="shared" si="0"/>
+        <v>.pdf</v>
+      </c>
+    </row>
+    <row r="69" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C69" t="str">
+        <f t="shared" ref="C69:C81" si="1">A69&amp;".pdf"</f>
+        <v>.pdf</v>
+      </c>
+    </row>
+    <row r="70" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C70" t="str">
+        <f t="shared" si="1"/>
+        <v>.pdf</v>
+      </c>
+    </row>
+    <row r="71" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C71" t="str">
+        <f t="shared" si="1"/>
+        <v>.pdf</v>
+      </c>
+    </row>
+    <row r="72" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C72" t="str">
+        <f t="shared" si="1"/>
+        <v>.pdf</v>
+      </c>
+    </row>
+    <row r="73" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C73" t="str">
+        <f t="shared" si="1"/>
+        <v>.pdf</v>
+      </c>
+    </row>
+    <row r="74" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C74" t="str">
+        <f t="shared" si="1"/>
+        <v>.pdf</v>
+      </c>
+    </row>
+    <row r="75" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C75" t="str">
+        <f t="shared" si="1"/>
+        <v>.pdf</v>
+      </c>
+    </row>
+    <row r="76" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C76" t="str">
+        <f t="shared" si="1"/>
+        <v>.pdf</v>
+      </c>
+    </row>
+    <row r="77" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C77" t="str">
+        <f t="shared" si="1"/>
+        <v>.pdf</v>
+      </c>
+    </row>
+    <row r="78" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C78" t="str">
+        <f t="shared" si="1"/>
+        <v>.pdf</v>
+      </c>
+    </row>
+    <row r="79" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C79" t="str">
+        <f t="shared" si="1"/>
+        <v>.pdf</v>
+      </c>
+    </row>
+    <row r="80" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C80" t="str">
+        <f t="shared" si="1"/>
+        <v>.pdf</v>
+      </c>
+    </row>
+    <row r="81" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C81" t="str">
+        <f t="shared" si="1"/>
+        <v>.pdf</v>
+      </c>
+    </row>
+    <row r="82" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C82" t="str">
+        <f>A82&amp;".pdf"</f>
+        <v>.pdf</v>
+      </c>
+    </row>
+    <row r="83" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C83" t="str">
+        <f t="shared" ref="C83:C117" si="2">A83&amp;".pdf"</f>
+        <v>.pdf</v>
+      </c>
+    </row>
+    <row r="84" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C84" t="str">
+        <f t="shared" si="2"/>
+        <v>.pdf</v>
+      </c>
+    </row>
+    <row r="85" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C85" t="str">
+        <f t="shared" si="2"/>
+        <v>.pdf</v>
+      </c>
+    </row>
+    <row r="86" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C86" t="str">
+        <f t="shared" si="2"/>
+        <v>.pdf</v>
+      </c>
+    </row>
+    <row r="87" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C87" t="str">
+        <f t="shared" si="2"/>
+        <v>.pdf</v>
+      </c>
+    </row>
+    <row r="88" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C88" t="str">
+        <f t="shared" si="2"/>
+        <v>.pdf</v>
+      </c>
+    </row>
+    <row r="89" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C89" t="str">
+        <f t="shared" si="2"/>
+        <v>.pdf</v>
+      </c>
+    </row>
+    <row r="90" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C90" t="str">
+        <f t="shared" si="2"/>
+        <v>.pdf</v>
+      </c>
+    </row>
+    <row r="91" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C91" t="str">
+        <f t="shared" si="2"/>
+        <v>.pdf</v>
+      </c>
+    </row>
+    <row r="92" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C92" t="str">
+        <f t="shared" si="2"/>
+        <v>.pdf</v>
+      </c>
+    </row>
+    <row r="93" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C93" t="str">
+        <f t="shared" si="2"/>
+        <v>.pdf</v>
+      </c>
+    </row>
+    <row r="94" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C94" t="str">
+        <f t="shared" si="2"/>
+        <v>.pdf</v>
+      </c>
+    </row>
+    <row r="95" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C95" t="str">
+        <f t="shared" si="2"/>
+        <v>.pdf</v>
+      </c>
+    </row>
+    <row r="96" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C96" t="str">
+        <f t="shared" si="2"/>
+        <v>.pdf</v>
+      </c>
+    </row>
+    <row r="97" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C97" t="str">
+        <f t="shared" si="2"/>
+        <v>.pdf</v>
+      </c>
+    </row>
+    <row r="98" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C98" t="str">
+        <f t="shared" si="2"/>
+        <v>.pdf</v>
+      </c>
+    </row>
+    <row r="99" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C99" t="str">
+        <f t="shared" si="2"/>
+        <v>.pdf</v>
+      </c>
+    </row>
+    <row r="100" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C100" t="str">
+        <f t="shared" si="2"/>
+        <v>.pdf</v>
+      </c>
+    </row>
+    <row r="101" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C101" t="str">
+        <f t="shared" si="2"/>
+        <v>.pdf</v>
+      </c>
+    </row>
+    <row r="102" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C102" t="str">
+        <f t="shared" si="2"/>
+        <v>.pdf</v>
+      </c>
+    </row>
+    <row r="103" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C103" t="str">
+        <f t="shared" si="2"/>
+        <v>.pdf</v>
+      </c>
+    </row>
+    <row r="104" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C104" t="str">
+        <f t="shared" si="2"/>
+        <v>.pdf</v>
+      </c>
+    </row>
+    <row r="105" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C105" t="str">
+        <f t="shared" si="2"/>
+        <v>.pdf</v>
+      </c>
+    </row>
+    <row r="106" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C106" t="str">
+        <f t="shared" si="2"/>
+        <v>.pdf</v>
+      </c>
+    </row>
+    <row r="107" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C107" t="str">
+        <f t="shared" si="2"/>
+        <v>.pdf</v>
+      </c>
+    </row>
+    <row r="108" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C108" t="str">
+        <f t="shared" si="2"/>
+        <v>.pdf</v>
+      </c>
+    </row>
+    <row r="109" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C109" t="str">
+        <f t="shared" si="2"/>
+        <v>.pdf</v>
+      </c>
+    </row>
+    <row r="110" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C110" t="str">
+        <f t="shared" si="2"/>
+        <v>.pdf</v>
+      </c>
+    </row>
+    <row r="111" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C111" t="str">
+        <f t="shared" si="2"/>
+        <v>.pdf</v>
+      </c>
+    </row>
+    <row r="112" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C112" t="str">
+        <f t="shared" si="2"/>
+        <v>.pdf</v>
+      </c>
+    </row>
+    <row r="113" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C113" t="str">
+        <f t="shared" si="2"/>
+        <v>.pdf</v>
+      </c>
+    </row>
+    <row r="114" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C114" t="str">
+        <f t="shared" si="2"/>
+        <v>.pdf</v>
+      </c>
+    </row>
+    <row r="115" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C115" t="str">
+        <f t="shared" si="2"/>
+        <v>.pdf</v>
+      </c>
+    </row>
+    <row r="116" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C116" t="str">
+        <f t="shared" si="2"/>
+        <v>.pdf</v>
+      </c>
+    </row>
+    <row r="117" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C117" t="str">
+        <f t="shared" si="2"/>
+        <v>.pdf</v>
+      </c>
+    </row>
+    <row r="118" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C118" t="str">
+        <f>A118&amp;".pdf"</f>
+        <v>.pdf</v>
+      </c>
+    </row>
+    <row r="119" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C119" t="str">
+        <f t="shared" ref="C119:C134" si="3">A119&amp;".pdf"</f>
+        <v>.pdf</v>
+      </c>
+    </row>
+    <row r="120" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C120" t="str">
+        <f t="shared" si="3"/>
+        <v>.pdf</v>
+      </c>
+    </row>
+    <row r="121" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C121" t="str">
+        <f t="shared" si="3"/>
+        <v>.pdf</v>
+      </c>
+    </row>
+    <row r="122" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C122" t="str">
+        <f t="shared" si="3"/>
+        <v>.pdf</v>
+      </c>
+    </row>
+    <row r="123" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C123" t="str">
+        <f t="shared" si="3"/>
+        <v>.pdf</v>
+      </c>
+    </row>
+    <row r="124" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C124" t="str">
+        <f t="shared" si="3"/>
+        <v>.pdf</v>
+      </c>
+    </row>
+    <row r="125" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C125" t="str">
+        <f t="shared" si="3"/>
+        <v>.pdf</v>
+      </c>
+    </row>
+    <row r="126" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C126" t="str">
+        <f t="shared" si="3"/>
+        <v>.pdf</v>
+      </c>
+    </row>
+    <row r="127" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C127" t="str">
+        <f t="shared" si="3"/>
+        <v>.pdf</v>
+      </c>
+    </row>
+    <row r="128" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C128" t="str">
+        <f t="shared" si="3"/>
+        <v>.pdf</v>
+      </c>
+    </row>
+    <row r="129" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C129" t="str">
+        <f t="shared" si="3"/>
+        <v>.pdf</v>
+      </c>
+    </row>
+    <row r="130" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C130" t="str">
+        <f t="shared" si="3"/>
+        <v>.pdf</v>
+      </c>
+    </row>
+    <row r="131" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C131" t="str">
+        <f t="shared" si="3"/>
+        <v>.pdf</v>
+      </c>
+    </row>
+    <row r="132" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C132" t="str">
+        <f t="shared" si="3"/>
+        <v>.pdf</v>
+      </c>
+    </row>
+    <row r="133" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C133" t="str">
+        <f t="shared" si="3"/>
+        <v>.pdf</v>
+      </c>
+    </row>
+    <row r="134" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C134" t="str">
+        <f t="shared" si="3"/>
+        <v>.pdf</v>
+      </c>
+    </row>
+    <row r="135" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C135" t="str">
+        <f>A135&amp;".pdf"</f>
+        <v>.pdf</v>
+      </c>
+    </row>
+    <row r="136" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C136" t="str">
+        <f t="shared" ref="C136:C148" si="4">A136&amp;".pdf"</f>
+        <v>.pdf</v>
+      </c>
+    </row>
+    <row r="137" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C137" t="str">
+        <f t="shared" si="4"/>
+        <v>.pdf</v>
+      </c>
+    </row>
+    <row r="138" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C138" t="str">
+        <f t="shared" si="4"/>
+        <v>.pdf</v>
+      </c>
+    </row>
+    <row r="139" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C139" t="str">
+        <f t="shared" si="4"/>
+        <v>.pdf</v>
+      </c>
+    </row>
+    <row r="140" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C140" t="str">
+        <f t="shared" si="4"/>
+        <v>.pdf</v>
+      </c>
+    </row>
+    <row r="141" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C141" t="str">
+        <f t="shared" si="4"/>
+        <v>.pdf</v>
+      </c>
+    </row>
+    <row r="142" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C142" t="str">
+        <f t="shared" si="4"/>
+        <v>.pdf</v>
+      </c>
+    </row>
+    <row r="143" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C143" t="str">
+        <f t="shared" si="4"/>
+        <v>.pdf</v>
+      </c>
+    </row>
+    <row r="144" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C144" t="str">
+        <f t="shared" si="4"/>
+        <v>.pdf</v>
+      </c>
+    </row>
+    <row r="145" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C145" t="str">
+        <f t="shared" si="4"/>
+        <v>.pdf</v>
+      </c>
+    </row>
+    <row r="146" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C146" t="str">
+        <f t="shared" si="4"/>
+        <v>.pdf</v>
+      </c>
+    </row>
+    <row r="147" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C147" t="str">
+        <f t="shared" si="4"/>
+        <v>.pdf</v>
+      </c>
+    </row>
+    <row r="148" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C148" t="str">
+        <f t="shared" si="4"/>
+        <v>.pdf</v>
+      </c>
+    </row>
+    <row r="149" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C149" t="str">
+        <f>A149&amp;".pdf"</f>
+        <v>.pdf</v>
+      </c>
+    </row>
+    <row r="150" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C150" t="str">
+        <f t="shared" ref="C150:C158" si="5">A150&amp;".pdf"</f>
+        <v>.pdf</v>
+      </c>
+    </row>
+    <row r="151" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C151" t="str">
+        <f t="shared" si="5"/>
+        <v>.pdf</v>
+      </c>
+    </row>
+    <row r="152" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C152" t="str">
+        <f t="shared" si="5"/>
+        <v>.pdf</v>
+      </c>
+    </row>
+    <row r="153" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C153" t="str">
+        <f t="shared" si="5"/>
+        <v>.pdf</v>
+      </c>
+    </row>
+    <row r="154" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C154" t="str">
+        <f t="shared" si="5"/>
+        <v>.pdf</v>
+      </c>
+    </row>
+    <row r="155" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C155" t="str">
+        <f t="shared" si="5"/>
+        <v>.pdf</v>
+      </c>
+    </row>
+    <row r="156" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C156" t="str">
+        <f t="shared" si="5"/>
+        <v>.pdf</v>
+      </c>
+    </row>
+    <row r="157" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C157" t="str">
+        <f t="shared" si="5"/>
+        <v>.pdf</v>
+      </c>
+    </row>
+    <row r="158" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C158" t="str">
+        <f t="shared" si="5"/>
+        <v>.pdf</v>
+      </c>
+    </row>
+    <row r="159" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C159" t="str">
+        <f>A159&amp;".pdf"</f>
+        <v>.pdf</v>
+      </c>
+    </row>
+    <row r="160" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C160" t="str">
+        <f t="shared" ref="C160" si="6">A160&amp;".pdf"</f>
+        <v>.pdf</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/users_2026.xlsx
+++ b/users_2026.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -778,6 +778,244 @@
         </is>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>이상률</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>scrypt:32768:8:1$Rs2DMWFrmdeqINYw$6c0e18dccae57fcde6b6d52e5d09fdb5b3569e2a43f50acb9955ac0a5206148c24ab1a83baee78f1617bc3a9a40e331fa097aa447a021c03e35cfe5de9aba0da</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>이상률.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>이영승</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>scrypt:32768:8:1$A9XmrP18yuNaUhbC$ccd51d1e10d998823717781db96d7160775797f326bbb62c13e3d5575913a7146daf832981137d490169368c0cf7f0aa87203402f138847b0bce03c9e818fe14</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>이영승.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>이영일</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>scrypt:32768:8:1$ychVtod2h8R3HJKO$824f96e5cd2d23d9a15e4e382059d4149ee995b170f13732e377ed6cb936037cfd137fd1e02623a4709f8737c93dc7407fd948d40efa04ea2748b9c6c73f5797</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>이영일.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>강재병</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>scrypt:32768:8:1$kuu72GU2KSdUTtSP$f9cbabe538800870191fe964d8a6a506ac72c61246e54ae3d8696b898e338e858705081beecd6076d2ac6b5c8f5664d3e7d483ded02d3bb64d3fb736020cacf7</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>강재병.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>서원</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>scrypt:32768:8:1$lsyhwVHBEY59zDtJ$a6fe870a057480b482f5a400b8f4c8b691a8afe97913192b384cfde52f667a98e38c4bfaf901dd9f4bde6fdde08d916d593465c9b2cc93dbf3fc8c66e2d22888</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>서원.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>반재호</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>scrypt:32768:8:1$vRyvN7i2eQUpqjvs$effc2606ade01af320d041ac65de6d9990bb22fb855d7c5456e9bcb6877fa25eaf737f0db15bf096b2ca35dcf281866137aa75e717e503e685e40ad3795fafe1</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>반재호.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>송순천</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>scrypt:32768:8:1$PWo2jgc3vxvJQ7Tz$3ba4681203564b399bbf9b9feaf33b83d25623f60fa13439ba62485dcb885fc9ac12d56a6827f54d94f1de8b0ad7e228d4dec7c10ff933aaee4434a7896b6243</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>송순천.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>최재경</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>scrypt:32768:8:1$CBzdLqrLFVmvrdsb$bc808defda9e81af1cd9dc5f7eb1aa32b4ca2b21d1e0eb2ae722e9721a73dcc0de3af488f70c15ad7ecc005c3d8356a52711f0ab0bd9f90821c0ad03dfb763ff</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>최재경.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>유재철</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>scrypt:32768:8:1$1XYKZjmcpahmJUnL$8b19d3547407bb3feceff8445a0912f9f2a66cfefc6919b715c69d93f6ee8e78cf2097d9c6e2cc7b6483119603f9f59e4fd216c6f4fa5488b1bc23c28119812e</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>유재철.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>송영선</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>scrypt:32768:8:1$1dj0sEpSMqvvRa5t$b7d1f3a59046105395f9effe3ea53f627ae3c7e5cf68bcf3e4da5147d82fbded74d7f06cf9442ba6d72592b9d81584ecb9205abe3d049668a83b17918d942052</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>송영선.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>조상숙</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>scrypt:32768:8:1$DbhwZVJhK0rgrGD3$c42ad813ef04ad4225ba0b561f79e9a8deb312642fbf0ac8ea3a3ffd8afae45701e7870a45a85bc14cf87e08bb1aeddb8118f13d727d6bb679a976ab9091e795</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>조상숙.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>김상태</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>scrypt:32768:8:1$e223JsD4r7Pj4bJk$19b1467582727898afb54ec19e055af8a4197220763e4f6634a614420558ab9ab3586e577030198970da8639e5464600e31d74434193366d5b0c27b3f5a9e072</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>김상태.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>추윤식</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>scrypt:32768:8:1$SMIs4DeL5Y6hd9Yg$938604f85a566dfa6ff183f36c80cd0c944c72517155aad863d9e26faeaa1360e8edb175ae70cba52fcdc13887c8979b669bcc7b7a9d99c2d47c7ed5559e50cb</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>추윤식.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>오현석</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>scrypt:32768:8:1$Rz5nsKe8lbSh1s9C$3e5c5fab365165ac6dcd1f2f0bcbed8a2d8031fdf7611841a52d1703f236a684ea150871c1f3b1440e91c14bd8f6b36dfaa35c4c7f723d40b1346b5c66d0fbc9</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>오현석.pdf</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/users_2026.xlsx
+++ b/users_2026.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1016,6 +1016,57 @@
         </is>
       </c>
     </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>김성관</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>scrypt:32768:8:1$FFbykAIigHdl4qIm$9c2c721450d8f1cfce845e91688bb9cae749e7e60fd8bc05c13586a5484b7a54732c06207f372452c45e06519a7d43b43ac5e7905d28f062e0e80b7b478f937d</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>김성관.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>김현수</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>scrypt:32768:8:1$ibGv9T4Qvw9JC7ii$14a3441cfb028fb1127bb6e514c58c982806112976ca0f73a83dac727730a40046a107dc49eac7e17fefae5678ad0bff5ffc9cc7d38f0e40485448afaf221530</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>김현수.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>박완규</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>scrypt:32768:8:1$1UhxDov9vI0OGg0C$094c157694b7ddf23ba117eb2aae356f10ca874bd5e22793dbb0d5b7290cbea1354cee29986e223f04460d255f50046b2044b09a8116c7b31f1986c48cd60769</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>박완규.pdf</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/users_2026.xlsx
+++ b/users_2026.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C38"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1067,6 +1067,57 @@
         </is>
       </c>
     </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>송영옥</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>scrypt:32768:8:1$7E3CmI0TnbfVn8mH$2799f739acec4320e76d7e2f4c2bc791899ae7a5ee507d80ee5580ffc4f53cac56a35ba86f6e75e48dc5ff18e1e691951fd1f35eda59509c0ca9bc8d870fbec2</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>송영옥.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>한상철</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>scrypt:32768:8:1$il8OwOZiU1HtI0sA$a1d41edcaed2ef32d28120ac9b2b98ac0d7539b81a89319f46412ab3cc77be3b49923fd7e52c7b8993d1b12472524f881b500eedff33b566817d855729473446</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>한상철.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>김재근</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>scrypt:32768:8:1$IugnvzoqxYqu1x5D$262b0b2a518dc267c01ed309154cb271a71aae8a3f6296fa6ae0c9138bfe6e15ea881477f3b530e47a922c3b0c94ade2b147c73be5e607083e5a4da1d81d71e8</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>김재근.pdf</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/users_2026.xlsx
+++ b/users_2026.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1118,6 +1118,40 @@
         </is>
       </c>
     </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>안재경</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>scrypt:32768:8:1$JHhDXLwDyPIprGdD$48e36bba55fbfbf724ad6d32c4c8bc0315c27ee52aa73785e8779a4aff4497d331f4ee2c286ddfbbf5b42a495a197f29a3801f942a730b52dc3d555036658b02</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>안재경.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>이공준</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>scrypt:32768:8:1$MBXW7VytARYqPRbj$f5c6f52d58c777750a83b122209360daf62573fdec1631a15838adc8ee5a919f9f063d8a399fef1bfe70fab783e1faa9d9ab9ad39b9f4f7da5dddc700f2d3258</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>이공준.pdf</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/users_2026.xlsx
+++ b/users_2026.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C43"/>
+  <dimension ref="A1:C45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1152,6 +1152,40 @@
         </is>
       </c>
     </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>김주동</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>scrypt:32768:8:1$sb83FSUZtqj2vGru$7323b41260f7e87d94c108e1af34394102b68d84ad3ad8bcc23cd4b6e9ef3d7c7ff2341f5a054edd309ddaa90ca2ab795715cdb07af1bc88654f1310f1cb600e</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>김주동.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>권명기</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>scrypt:32768:8:1$POlbgleGSmwj3Uiq$47be5a919c1a4f57f19bc932600867c0d2182a40936aa3ad6d3da561402e552031e887c6fbe2d97cdf3b9c46752e225918ef3c4e6774106ef8f7e3bb3e04b7f0</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>권명기.pdf</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/users_2026.xlsx
+++ b/users_2026.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C45"/>
+  <dimension ref="A1:C46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1186,6 +1186,23 @@
         </is>
       </c>
     </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>김은주</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>scrypt:32768:8:1$Pz2G60H5atJXIR6b$34272b6cab41c63a078ca95bf11992da12c4cf1320ab42cc5678fe1b4769b06295c42103c17707feff5fe8a6389ff6fb33ac2bf257a962e2b9f97219fdcec0a5</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>김은주.pdf</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/users_2026.xlsx
+++ b/users_2026.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C46"/>
+  <dimension ref="A1:C52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1203,6 +1203,108 @@
         </is>
       </c>
     </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>김용조</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>scrypt:32768:8:1$AhH5O3cVZ9rzCnrR$b69576d6ac58b7643fe9ce1cce13d95233d45b0fb378a4f3b8104ca9a0c1786844b2d639cb42a02413fa8b4f8f16ca80a3e80c20493958249eaad9e74c84ddb9</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>김용조.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>박노면</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>scrypt:32768:8:1$WEfKlMYbAqhyInlt$adf430cd80de3fc684d3f8fb205ab696c2c4dbaba27cb7dcf3f3638cc445d520996444d193221c26d27d9b894b1c21d86dec584c5b6bb9dc5236b231e404a436</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>박노면.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>우상민</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>scrypt:32768:8:1$tp0humfjzDwdK5rO$36fe2d1d7191df0bbb8916443789874a5a63fa4118543f3e6a9bdc077803550518512be1a010059400c4999eb8065c9e3701e33ac53733e92e4e1c6ce4a15224</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>우상민.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>김선자</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>scrypt:32768:8:1$26XeYNlLT2EH0LqY$6d000c58f57a001255e5819a19cc9c81b4d90cec2c5330f3b97146de09e6884fe5615a5e970fed8931a1f530b30553b1758b7a468b1ef5cfacc865a792c028f2</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>김선자.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>홍성태</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>scrypt:32768:8:1$ilFDADnQMflnMRVh$5a6e194f3e518867caff4c831b11684ff0655804edd66281a290c8d27a9aacf7655a189fdd673f23afb7b4450447c78649d20a6141791a73dcad994f56630482</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>홍성태.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>김경희</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>scrypt:32768:8:1$G5LO7qPLRxGWMvBq$87f1a8758fef3e5ce69f69b7e92bc80f3fa574673cd0b94fd471fb1f8f8203e3341489ee976ee713d39a09252258adb913cc806d5939fc92639ae753e12b94aa</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>김경희.pdf</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/users_2026.xlsx
+++ b/users_2026.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C52"/>
+  <dimension ref="A1:C57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1305,6 +1305,91 @@
         </is>
       </c>
     </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>정태흥</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>scrypt:32768:8:1$QhCfTH3hUcBCSOmw$94ed99fbf457e2c725e029ecae571073ab6be690cac16cea481f7feb5621b3d26f42039854651bf8af27f5ccdf9bce76196f3c3b5d9f5ba0a6ee25fc89c8e9c1</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>정태흥.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>최두나</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>scrypt:32768:8:1$S3ReFXwNBGFguSz3$58a0046665dab4491f5dcad15b674207f5a3a70b174ca61fa8c63f6a1804fcae5eb35b547e04a26ba9c9a8fd814c8e520efb01d10479a5ae732517c39bcd7ad7</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>최두나.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>이지훈</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>scrypt:32768:8:1$hiG71jqhEonomMxO$f669ec10b45d150fad50620e4b7e706d47278d574029c99ae029777c2d94e94c5f5827f17b74af94cf4361dc5d3c421622fc6728effc9b500f72995c0d92fb07</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>이지훈.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>최정홍</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>scrypt:32768:8:1$W9R2QzLnYTyE5OA4$9cefd0f363218bd4683a052cadae1b885b9a32cf13ee9e7e0a07029e87ece0ca75ca8eb182618f64054806a9b778377bb2d693bb5a7bd6762469dfafba81447b</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>최정홍.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>이상곤</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>scrypt:32768:8:1$v6SSJrBvQhkPNrjX$828bb79d75466291f6686e9918763859d2ee2739b59e569a9bb77964de093dd9a03779d62d2559625ddd464b376a3ff88d5ecccc1768b05c999d2443d0874125</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>이상곤.pdf</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/users_2026.xlsx
+++ b/users_2026.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C57"/>
+  <dimension ref="A1:C58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1390,6 +1390,23 @@
         </is>
       </c>
     </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>안상오</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>scrypt:32768:8:1$V5BdU0n9TF8npe9t$4be5e802ce1b4c91ba2ca7b7bd2289e14e3679adb3bb86a043f59daafc8d90115b5294e5c3f7b853dcf06db7bbb4869e0a156e3d80ac3211f7ccab7b9339d726</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>안상오.pdf</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/users_2026.xlsx
+++ b/users_2026.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C58"/>
+  <dimension ref="A1:C59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1407,6 +1407,23 @@
         </is>
       </c>
     </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>류해원</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>scrypt:32768:8:1$BEGRBdhxLePIEbjB$35383692fcf7c4d1cd3b5dd79acf389598c38192dce7a521c4280257c8889035134b8840cc32c023620be93bce0860c6bac23d8f079a0bf040a63c2794ea9ab8</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>류해원.pdf</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/users_2026.xlsx
+++ b/users_2026.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C59"/>
+  <dimension ref="A1:C60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1424,6 +1424,23 @@
         </is>
       </c>
     </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>김한섭</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>scrypt:32768:8:1$nFAUUvC5gAKIPzgU$2363a6ec41bc19dc2799b6827877948aeae098e076df8cf1a779b99bffee4574b073be8f3cf392ebc97ed6b819b87dd2a11188f1a3556a2f85102030f9f65970</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>김한섭.pdf</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/users_2026.xlsx
+++ b/users_2026.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C60"/>
+  <dimension ref="A1:C61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1441,6 +1441,23 @@
         </is>
       </c>
     </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>박웅</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>scrypt:32768:8:1$uQiGjatRLMQoalxu$4db83418ac8638d0d678cad8f3515c3163bd9dd091f0999d7e0593fd4e503cdb1fd080296ea909314ed0fb90194078aba432ef59c3ecdcd83882a4e96b60fb06</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>박웅.pdf</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/users_2026.xlsx
+++ b/users_2026.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C61"/>
+  <dimension ref="A1:C63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1458,6 +1458,40 @@
         </is>
       </c>
     </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>권영신</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>scrypt:32768:8:1$NnX5NqxL1UmZcFGl$b712423ee702d4cbb2f372bfe3f05e6e509817cb81b50cc0f543f2cb0108b3d314f35d7c7162dd6cdc466bb16120c7ca4d9cfd3a37ec6bebd955af19be5e3e95</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>권영신.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>박수민</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>scrypt:32768:8:1$xEOP5uMqwRcAa2EX$6b29ba95574b1a18f71ee2aa383edbe368e9581c411410a643089b78598320641c3890a45235852914171b937d14eadfcbbb3782f3fcad17271b3976e1ce2f09</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>박수민.pdf</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/users_2026.xlsx
+++ b/users_2026.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C63"/>
+  <dimension ref="A1:C65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1492,6 +1492,40 @@
         </is>
       </c>
     </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>김민혜</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>scrypt:32768:8:1$oEhjxU2tsj7r3rNr$9cfb6890942ff480d7e3b0bf089e18f405b1e6f82defd94b16c1302e292a3cbac596bb6d0183f336270211a3b12a93491a7e72094c7eac7685757f5b566d3a1b</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>김민혜.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>김광수</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>scrypt:32768:8:1$c5HBDz7GPSSbTCQ4$3d0ecb289c1664c5e5060fa5c8fb3cec614c688073f5a6feb682fc18b4c1d41bb3529a8bb9d4c79f7dd5b3438513cc763ae6908d0746ec48e3e48f22e48f7b58</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>김광수.pdf</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/users_2026.xlsx
+++ b/users_2026.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C65"/>
+  <dimension ref="A1:C70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1526,6 +1526,91 @@
         </is>
       </c>
     </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>김일환</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>scrypt:32768:8:1$wJpA3HIv0lVJvvlS$1f67963a83128386cdb5a6fbf3669e0a6bb391f60f137b8001f5fe9d0c2c69fa5874f24df6449f997c8bf812c0c8e682de6588a15b3ec78294ea1df43199f50a</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>김일환.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>이정희</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>scrypt:32768:8:1$VKAjUsA60CnJ3xl9$d7e034e4edbbe83496a860b1d112342ce2be1265a6718b2d79e6e7a672a23331255f25ca25ecba9f40b86f2b5292a8aba6c1a6b898372565d0454e716969c982</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>이정희.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>박원규</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>scrypt:32768:8:1$VyabE9LtOl9AmAh8$6b4a27803c579a0a081a923af0081be139d9cbb9d171e8faf2b1a3e040a004022c999f7bb066edc6a0e250477a1007148d4ef33e469b669bd4d79a5b36de5e6a</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>박원규.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>김기범</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>scrypt:32768:8:1$el59BHCQ99yFc6PE$537ddabc78ca35b1bf07207f39972b2aa9feda07fad1c59d4c74fd4b8859f641f026f14847d704a0d6413fe9070d804655f57f08202e8dc469d37b6cacef9a49</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>김기범.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>정상임</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>scrypt:32768:8:1$2ZPwLWcRPVyVfkCy$837ee75722acd10c76250f5eee433518f83737cc6c847632077a3f58acf91ef294dafddead1306068acbc97dfd3467d62b2688af5a56435d298b78c2311f9566</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>정상임.pdf</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
